--- a/AAA-Luban-Excel/Datas/item_Jewelry.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Jewelry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="17370" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>饰品名称</t>
   </si>
   <si>
-    <t>饰品功能描述</t>
+    <t>饰品等其他功能做完后再做也可，饰品功能描述</t>
   </si>
   <si>
     <t>名称</t>
@@ -1145,15 +1145,15 @@
   <sheetPr/>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="96.75" customWidth="1"/>
+    <col min="4" max="4" width="65.65" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/AAA-Luban-Excel/Datas/item_Jewelry.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Jewelry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17370" windowHeight="9285"/>
+    <workbookView windowWidth="25590" windowHeight="11200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>##var</t>
   </si>
@@ -47,13 +47,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>##group</t>
-  </si>
-  <si>
-    <t>c,s</t>
   </si>
   <si>
     <t>##</t>
@@ -66,144 +60,6 @@
   </si>
   <si>
     <t>饰品等其他功能做完后再做也可，饰品功能描述</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>黑暗中有东西发声时，会标记其位置</t>
-  </si>
-  <si>
-    <t>标记最近的一个敌人，减少其造成的伤害</t>
-  </si>
-  <si>
-    <t>非跳过状态下，每过10秒，随机恢复2%饱腹度或水份值</t>
-  </si>
-  <si>
-    <t>受毒气的伤害减少50%</t>
-  </si>
-  <si>
-    <t>每天一次，第一次开的门将不再消耗钥匙</t>
-  </si>
-  <si>
-    <t>获得的推理点数+50%</t>
-  </si>
-  <si>
-    <t>现在，不需要靠近，场地里物品的耐久都会显示出来</t>
-  </si>
-  <si>
-    <t>每天第一次交谈的对象会恢复5点生命值</t>
-  </si>
-  <si>
-    <t>角色受击时发出的声响将不再吸引怪物</t>
-  </si>
-  <si>
-    <t>交谈结束后，会提供30S的[飞奔]状态</t>
-  </si>
-  <si>
-    <t>每次进入房间时，让随机一个隐形单位显形</t>
-  </si>
-  <si>
-    <t>可以看到已显形怪物的血量</t>
-  </si>
-  <si>
-    <t>每次进入新房间时，San值若高于50，则消耗10点，使该房间进入灵视状态</t>
-  </si>
-  <si>
-    <t>在白天也将能看到萤火虫</t>
-  </si>
-  <si>
-    <t>在夜晚的视野将更清晰</t>
-  </si>
-  <si>
-    <t>修葺武器的点数增加，值为角色力量值的2倍</t>
-  </si>
-  <si>
-    <t>武器的攻击范围增大</t>
-  </si>
-  <si>
-    <t>武器的攻击间隔减少10%</t>
-  </si>
-  <si>
-    <t>拾取物品后，获得3S的[飞奔]状态</t>
-  </si>
-  <si>
-    <t>通过投掷造成的最终伤害增加，值为角色力量x物品重量</t>
-  </si>
-  <si>
-    <t>跑步每秒消耗的体力-30%</t>
-  </si>
-  <si>
-    <t>跑步的速度倍率+0.2</t>
-  </si>
-  <si>
-    <t>静止2S以上后，下一次攻击造成的伤害+50%，走动或射击后消失</t>
-  </si>
-  <si>
-    <t>背包上限+1，最多为7</t>
-  </si>
-  <si>
-    <t>饱腹度上限+10</t>
-  </si>
-  <si>
-    <t>水份值上限+10</t>
-  </si>
-  <si>
-    <t>来自食物的饱腹值+5</t>
-  </si>
-  <si>
-    <t>来自饮品的水份值+5</t>
-  </si>
-  <si>
-    <t>每攻击2次，下一次近战武器的攻击在命中后追加一次等于其基础伤害值的伤害</t>
-  </si>
-  <si>
-    <t>武器造成的最终伤害值增加，值为角色的力量值</t>
-  </si>
-  <si>
-    <t>击杀怪物后恢复4点生命值</t>
-  </si>
-  <si>
-    <t>SAN值上限+10</t>
-  </si>
-  <si>
-    <t>武器触发效果的基本概率+10%</t>
-  </si>
-  <si>
-    <t>击杀怪物时恢复1点San值</t>
-  </si>
-  <si>
-    <t>每次损失耐久前都有25%概率恢复2点耐久</t>
-  </si>
-  <si>
-    <t>受到伤害的1S内移动速度+30%</t>
-  </si>
-  <si>
-    <t>即使进入了警戒范围，在2秒内也不会进入交战状态</t>
-  </si>
-  <si>
-    <t>对非交战状态下的怪物造成的伤害+50%</t>
-  </si>
-  <si>
-    <t>6秒一次，攻击命中后（可被攻击的场景物品也算），2秒内移动速度+20%（通过远程武器的移动速度加成为10%）</t>
-  </si>
-  <si>
-    <t>技能消耗的San值降低30%</t>
-  </si>
-  <si>
-    <t>每攻击2次，下一次枪械类的攻击会在命中后追加一次等于其基础伤害值的伤害</t>
-  </si>
-  <si>
-    <t>力量等级+1</t>
-  </si>
-  <si>
-    <t>怪物被击败后会随机掉落一颗子弹</t>
-  </si>
-  <si>
-    <t>火焰对怪物造成的伤害+33%，对自己造成的伤害-33%</t>
-  </si>
-  <si>
-    <t>现在，你可以点燃大地了</t>
   </si>
 </sst>
 </file>
@@ -819,7 +675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,6 +687,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1146,14 +1005,14 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D5" sqref="D5:D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="65.65" customWidth="1"/>
+    <col min="3" max="3" width="20.3727272727273" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.6545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1178,531 +1037,527 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1">
         <v>210001</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+      <c r="C5" s="4">
+        <v>752001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>852001</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="1">
         <v>210002</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
+      <c r="C6" s="4">
+        <v>752002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>852002</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="1">
         <v>210003</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
+      <c r="C7" s="4">
+        <v>752003</v>
+      </c>
+      <c r="D7" s="4">
+        <v>852003</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="1">
         <v>210004</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
+      <c r="C8" s="4">
+        <v>752004</v>
+      </c>
+      <c r="D8" s="4">
+        <v>852004</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="1">
         <v>210005</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
+      <c r="C9" s="4">
+        <v>752005</v>
+      </c>
+      <c r="D9" s="4">
+        <v>852005</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="1">
         <v>210006</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
+      <c r="C10" s="4">
+        <v>752006</v>
+      </c>
+      <c r="D10" s="4">
+        <v>852006</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="1">
         <v>210007</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
+      <c r="C11" s="4">
+        <v>752007</v>
+      </c>
+      <c r="D11" s="4">
+        <v>852007</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="1">
         <v>210008</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
+      <c r="C12" s="4">
+        <v>752008</v>
+      </c>
+      <c r="D12" s="4">
+        <v>852008</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="1">
         <v>210009</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
+      <c r="C13" s="4">
+        <v>752009</v>
+      </c>
+      <c r="D13" s="4">
+        <v>852009</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="1">
         <v>210010</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
+      <c r="C14" s="4">
+        <v>752010</v>
+      </c>
+      <c r="D14" s="4">
+        <v>852010</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="1">
         <v>210011</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
+      <c r="C15" s="4">
+        <v>752011</v>
+      </c>
+      <c r="D15" s="4">
+        <v>852011</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="1">
         <v>210012</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
+      <c r="C16" s="4">
+        <v>752012</v>
+      </c>
+      <c r="D16" s="4">
+        <v>852012</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1">
         <v>210013</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
+      <c r="C17" s="4">
+        <v>752013</v>
+      </c>
+      <c r="D17" s="4">
+        <v>852013</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="1">
         <v>210014</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
+      <c r="C18" s="4">
+        <v>752014</v>
+      </c>
+      <c r="D18" s="4">
+        <v>852014</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="1">
         <v>210015</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
+      <c r="C19" s="4">
+        <v>752015</v>
+      </c>
+      <c r="D19" s="4">
+        <v>852015</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="1">
         <v>210016</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
+      <c r="C20" s="4">
+        <v>752016</v>
+      </c>
+      <c r="D20" s="4">
+        <v>852016</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="1">
         <v>210017</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
+      <c r="C21" s="4">
+        <v>752017</v>
+      </c>
+      <c r="D21" s="4">
+        <v>852017</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="1">
         <v>210018</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
+      <c r="C22" s="4">
+        <v>752018</v>
+      </c>
+      <c r="D22" s="4">
+        <v>852018</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="1">
         <v>210019</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
-        <v>32</v>
+      <c r="C23" s="4">
+        <v>752019</v>
+      </c>
+      <c r="D23" s="4">
+        <v>852019</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="1">
         <v>210020</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
+      <c r="C24" s="4">
+        <v>752020</v>
+      </c>
+      <c r="D24" s="4">
+        <v>852020</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="1">
         <v>210021</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
+      <c r="C25" s="4">
+        <v>752021</v>
+      </c>
+      <c r="D25" s="4">
+        <v>852021</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="1">
         <v>210022</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
+      <c r="C26" s="4">
+        <v>752022</v>
+      </c>
+      <c r="D26" s="4">
+        <v>852022</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="1">
         <v>210023</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>36</v>
+      <c r="C27" s="4">
+        <v>752023</v>
+      </c>
+      <c r="D27" s="4">
+        <v>852023</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="1">
         <v>210024</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>37</v>
+      <c r="C28" s="4">
+        <v>752024</v>
+      </c>
+      <c r="D28" s="4">
+        <v>852024</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="1">
         <v>210025</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>38</v>
+      <c r="C29" s="4">
+        <v>752025</v>
+      </c>
+      <c r="D29" s="4">
+        <v>852025</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="1">
         <v>210026</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>39</v>
+      <c r="C30" s="4">
+        <v>752026</v>
+      </c>
+      <c r="D30" s="4">
+        <v>852026</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="1">
         <v>210027</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s">
-        <v>40</v>
+      <c r="C31" s="4">
+        <v>752027</v>
+      </c>
+      <c r="D31" s="4">
+        <v>852027</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="1">
         <v>210028</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s">
-        <v>41</v>
+      <c r="C32" s="4">
+        <v>752028</v>
+      </c>
+      <c r="D32" s="4">
+        <v>852028</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="1">
         <v>210029</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s">
-        <v>42</v>
+      <c r="C33" s="4">
+        <v>752029</v>
+      </c>
+      <c r="D33" s="4">
+        <v>852029</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="1">
         <v>210030</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" t="s">
-        <v>43</v>
+      <c r="C34" s="4">
+        <v>752030</v>
+      </c>
+      <c r="D34" s="4">
+        <v>852030</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="1">
         <v>210031</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s">
-        <v>44</v>
+      <c r="C35" s="4">
+        <v>752031</v>
+      </c>
+      <c r="D35" s="4">
+        <v>852031</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="1">
         <v>210032</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s">
-        <v>45</v>
+      <c r="C36" s="4">
+        <v>752032</v>
+      </c>
+      <c r="D36" s="4">
+        <v>852032</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="1">
         <v>210033</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s">
-        <v>46</v>
+      <c r="C37" s="4">
+        <v>752033</v>
+      </c>
+      <c r="D37" s="4">
+        <v>852033</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="1">
         <v>210034</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s">
-        <v>47</v>
+      <c r="C38" s="4">
+        <v>752034</v>
+      </c>
+      <c r="D38" s="4">
+        <v>852034</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="1">
         <v>210035</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>48</v>
+      <c r="C39" s="4">
+        <v>752035</v>
+      </c>
+      <c r="D39" s="4">
+        <v>852035</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="1">
         <v>210036</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s">
-        <v>49</v>
+      <c r="C40" s="4">
+        <v>752036</v>
+      </c>
+      <c r="D40" s="4">
+        <v>852036</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="1">
         <v>210037</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" t="s">
-        <v>50</v>
+      <c r="C41" s="4">
+        <v>752037</v>
+      </c>
+      <c r="D41" s="4">
+        <v>852037</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="1">
         <v>210038</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" t="s">
-        <v>51</v>
+      <c r="C42" s="4">
+        <v>752038</v>
+      </c>
+      <c r="D42" s="4">
+        <v>852038</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="1">
         <v>210039</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" t="s">
-        <v>52</v>
+      <c r="C43" s="4">
+        <v>752039</v>
+      </c>
+      <c r="D43" s="4">
+        <v>852039</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="1">
         <v>210040</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s">
-        <v>53</v>
+      <c r="C44" s="4">
+        <v>752040</v>
+      </c>
+      <c r="D44" s="4">
+        <v>852040</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="1">
         <v>210041</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s">
-        <v>54</v>
+      <c r="C45" s="4">
+        <v>752041</v>
+      </c>
+      <c r="D45" s="4">
+        <v>852041</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="1">
         <v>210042</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s">
-        <v>55</v>
+      <c r="C46" s="4">
+        <v>752042</v>
+      </c>
+      <c r="D46" s="4">
+        <v>852042</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="1">
         <v>210043</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" t="s">
-        <v>56</v>
+      <c r="C47" s="4">
+        <v>752043</v>
+      </c>
+      <c r="D47" s="4">
+        <v>852043</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="1">
         <v>210044</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" t="s">
-        <v>57</v>
+      <c r="C48" s="4">
+        <v>752044</v>
+      </c>
+      <c r="D48" s="4">
+        <v>852044</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="1">
         <v>210045</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" t="s">
-        <v>58</v>
+      <c r="C49" s="4">
+        <v>752045</v>
+      </c>
+      <c r="D49" s="4">
+        <v>852045</v>
       </c>
     </row>
   </sheetData>

--- a/AAA-Luban-Excel/Datas/item_Jewelry.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Jewelry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="11200"/>
+    <workbookView windowWidth="27765" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>##var</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>##group</t>
+  </si>
+  <si>
+    <t>c,s</t>
   </si>
   <si>
     <t>##</t>
@@ -1005,14 +1008,14 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D49"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="20.3727272727273" style="1" customWidth="1"/>
-    <col min="4" max="4" width="65.6545454545455" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.6583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1047,22 +1050,28 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:4">
